--- a/Agenda 2022-2.xlsx
+++ b/Agenda 2022-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d2322861db40b76d/Escritorio/seminario-de-proyectos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="11_F25DC773A252ABDACC104819599B4C185ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F42AE68-271D-4C5B-8AC1-5B3471C2C6B4}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="11_F25DC773A252ABDACC104819599B4C185ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2B62AA4-65E8-4D1D-B694-8D38857953D1}"/>
   <bookViews>
     <workbookView xWindow="-38265" yWindow="240" windowWidth="25440" windowHeight="15825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Taller</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t>Juliho Castillo</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/fea-fexf-bwx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enlace </t>
   </si>
 </sst>
 </file>
@@ -50,8 +56,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="167" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -87,32 +93,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+  <dxfs count="7">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -132,13 +141,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8241A0A9-FE1B-4A14-9997-7C1F2C6ADC21}" name="Table1" displayName="Table1" ref="A1:D2" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="A1:D2" xr:uid="{8241A0A9-FE1B-4A14-9997-7C1F2C6ADC21}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{9DF38AD2-BF17-4313-A1D5-DC905F5C8101}" name="Taller" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{60114CB8-7401-4ED9-A481-9FE89536BA18}" name="Fecha" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{C4966D5C-B9D1-4D37-A2D7-3DB9BDACCD3B}" name="Hora" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{49BB25B6-B598-4053-81CB-44BBC0FA8781}" name="Instructor" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8241A0A9-FE1B-4A14-9997-7C1F2C6ADC21}" name="Table1" displayName="Table1" ref="A1:E2" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E2" xr:uid="{8241A0A9-FE1B-4A14-9997-7C1F2C6ADC21}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{9DF38AD2-BF17-4313-A1D5-DC905F5C8101}" name="Taller" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{60114CB8-7401-4ED9-A481-9FE89536BA18}" name="Fecha" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{C4966D5C-B9D1-4D37-A2D7-3DB9BDACCD3B}" name="Hora" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{49BB25B6-B598-4053-81CB-44BBC0FA8781}" name="Instructor" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{748D90F4-0BCA-4F4C-821B-E55314722391}" name="Enlace " dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -407,21 +417,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
     <col min="2" max="2" width="31.85546875" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="5" width="45.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -434,8 +445,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -447,6 +461,9 @@
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
